--- a/data/trans_camb/P16B15-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B15-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16B15-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B15-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,38</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,38</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 82,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 63,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 36,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 36,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 36,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 39,31</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,44%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 457,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 176,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 58,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 57,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 58,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 64,66</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-1,45</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-1,76</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,54</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-6,09; 0,0</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-9,21; 0,0</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,28; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,55; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,32; 0,0</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,54%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-6,09; 0,0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-9,21; 0,0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,28; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,55; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,32; 0,0</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,8</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,93</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,0; 8,23</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-5,04; 4,13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,59; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,07; 1,29</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,93%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,0; 8,98</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 4,35</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,59; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 1,31</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,54</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,88; 4,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 6,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 5,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 5,08</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,57%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,9; 4,9</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 7,53</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,83</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 5,95</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 5,42</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 3,91</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 2,64</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 2,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 2,06</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 2,24</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 1,57</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,31%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 4,07</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 2,73</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 2,41</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 2,11</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 2,29</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 1,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B15-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B15-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,53</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,53</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,8</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,8</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,38</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,38</t>
+          <t>0,83</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,08</t>
+          <t>-2,3; 13,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,82</t>
+          <t>-2,72; 9,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,81</t>
+          <t>0,0; 9,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,38</t>
+          <t>-2,35; 4,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,83</t>
+          <t>-0,57; 6,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,31</t>
+          <t>-1,89; 5,5</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>27,44%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,44%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>0,85%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 457,8</t>
+          <t>-2,3; 15,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 176,41</t>
+          <t>-2,72; 10,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,26</t>
+          <t>0,0; 10,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,18</t>
+          <t>-2,35; 5,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,12</t>
+          <t>-0,57; 6,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,66</t>
+          <t>-1,89; 5,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -772,17 +772,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-0,93</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 0,0</t>
+          <t>0,0; 8,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 0,0</t>
+          <t>-5,04; 4,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -810,17 +810,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 0,0</t>
+          <t>-4,59; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 0,0</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 0,0</t>
+          <t>-3,07; 1,29</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,45%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,76%</t>
+          <t>-0,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,36%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,69%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,54%</t>
+          <t>-0,93%</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 0,0</t>
+          <t>0,0; 8,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 0,0</t>
+          <t>-5,05; 4,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -886,24 +886,24 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 0,0</t>
+          <t>-4,59; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 0,0</t>
+          <t>0,0; 2,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 0,0</t>
+          <t>-3,12; 1,31</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,12 +913,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -928,17 +928,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 4,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -966,17 +966,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 1,29</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -989,12 +989,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 4,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1042,24 +1042,24 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 1,31</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,54</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,88; 4,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 6,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 5,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 5,08</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,57%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,9; 4,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 7,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 5,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 5,42</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,96</t>
+          <t>-0,12; 3,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 4,6</t>
+          <t>-2,04; 2,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 6,94</t>
+          <t>-0,17; 2,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,95</t>
+          <t>-0,72; 2,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 5,61</t>
+          <t>0,19; 2,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 5,08</t>
+          <t>-0,76; 1,57</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>0,31%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,85</t>
+          <t>-0,12; 4,07</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 4,9</t>
+          <t>-2,05; 2,73</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 7,53</t>
+          <t>-0,17; 2,41</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,83</t>
+          <t>-0,73; 2,11</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 5,95</t>
+          <t>0,19; 2,29</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 5,42</t>
+          <t>-0,76; 1,61</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 3,91</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-2,04; 2,64</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,17; 2,35</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,72; 2,06</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 2,24</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 1,57</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>1,28%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>0,16%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>0,76%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>0,47%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>0,97%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>0,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 4,07</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-2,05; 2,73</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-0,17; 2,41</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-0,73; 2,11</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 2,29</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 1,61</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16B15-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B15-Habitat-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 13,31</t>
+          <t>-2,39; 14,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 9,28</t>
+          <t>-2,7; 12,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,28</t>
+          <t>0,0; 9,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 4,84</t>
+          <t>-2,36; 4,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 6,12</t>
+          <t>-0,56; 6,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 5,5</t>
+          <t>-1,88; 5,62</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 15,54</t>
+          <t>-2,39; 16,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 10,4</t>
+          <t>-2,7; 15,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,23</t>
+          <t>0,0; 10,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 5,11</t>
+          <t>-2,36; 5,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 6,52</t>
+          <t>-0,56; 6,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 5,96</t>
+          <t>-1,88; 5,99</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,23</t>
+          <t>0,0; 7,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 4,13</t>
+          <t>-5,13; 3,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -810,17 +810,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 0,0</t>
+          <t>-4,32; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,64</t>
+          <t>0,0; 3,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 1,29</t>
+          <t>-3,14; 1,3</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,98</t>
+          <t>0,0; 8,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 4,35</t>
+          <t>-5,19; 4,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -886,17 +886,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 0,0</t>
+          <t>-4,32; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,71</t>
+          <t>0,0; 3,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 1,31</t>
+          <t>-3,15; 1,31</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,96</t>
+          <t>0,0; 8,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 4,6</t>
+          <t>-2,87; 4,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 6,94</t>
+          <t>-1,36; 7,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,95</t>
+          <t>0,0; 7,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 5,61</t>
+          <t>-0,36; 4,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 5,08</t>
+          <t>-0,36; 4,91</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,85</t>
+          <t>0,0; 8,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 4,9</t>
+          <t>-2,89; 4,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 7,53</t>
+          <t>-1,37; 8,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,83</t>
+          <t>0,0; 8,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 5,95</t>
+          <t>-0,36; 5,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 5,42</t>
+          <t>-0,37; 5,17</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,91</t>
+          <t>-0,14; 4,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,64</t>
+          <t>-1,76; 2,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 2,35</t>
+          <t>-0,16; 2,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,06</t>
+          <t>-0,74; 1,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,24</t>
+          <t>0,11; 2,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,57</t>
+          <t>-0,82; 1,51</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,07</t>
+          <t>-0,14; 4,21</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 2,73</t>
+          <t>-1,78; 2,93</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 2,41</t>
+          <t>-0,16; 2,53</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,11</t>
+          <t>-0,74; 1,92</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,29</t>
+          <t>0,11; 2,33</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,61</t>
+          <t>-0,83; 1,54</t>
         </is>
       </c>
     </row>
